--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Development.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Development.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7271D2-633D-477B-A6D0-EDB0B17BB778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12161E30-19E2-4467-B2E2-207874CA8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library Elements" sheetId="1" r:id="rId1"/>
@@ -91,36 +91,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{96C7AEF6-1481-44A7-A630-1449152018DF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-System Group, Component not allowed for configuration activities - ignore or warn</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -179,21 +155,9 @@
     <t>CreateServiceRFC</t>
   </si>
   <si>
-    <t>Remote Function Call</t>
-  </si>
-  <si>
     <t>SendConfirmationService</t>
   </si>
   <si>
-    <t>REST</t>
-  </si>
-  <si>
-    <t>Available Categories</t>
-  </si>
-  <si>
-    <t>Class/Interface</t>
-  </si>
-  <si>
     <t>Classic BAdI Implementation</t>
   </si>
   <si>
@@ -218,20 +182,26 @@
     <t>Transaction</t>
   </si>
   <si>
-    <t>BTP App / Extension</t>
-  </si>
-  <si>
     <t>Custom Fiori Application</t>
   </si>
   <si>
     <t>For detailed information on the creation of documents via spreadsheet, see SAP Help Portal.</t>
+  </si>
+  <si>
+    <t>Classes/Interface</t>
+  </si>
+  <si>
+    <t>Element Types</t>
+  </si>
+  <si>
+    <t>BTP App/Extension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,19 +244,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -320,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +296,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -351,11 +314,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,17 +331,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{A57228FD-7515-41D7-A8CC-64BACB27649E}"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{E1045223-2BED-420A-8A7F-D24F4EA59C71}"/>
   </cellStyles>
@@ -401,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,7 +405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -547,7 +511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -689,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,62 +668,62 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.6171875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.47265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.47265625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.37890625" style="2" customWidth="1"/>
     <col min="11" max="11" width="24" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="2"/>
+    <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.6171875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:70" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4"/>
@@ -801,7 +765,7 @@
       <c r="AX1" s="4"/>
       <c r="AY1" s="4"/>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -881,7 +845,7 @@
       <c r="BQ2" s="4"/>
       <c r="BR2" s="4"/>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -892,8 +856,8 @@
       <c r="D3" s="8"/>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
+      <c r="G3" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -957,9 +921,9 @@
       <c r="BQ3" s="4"/>
       <c r="BR3" s="4"/>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
@@ -968,8 +932,8 @@
       <c r="D4" s="8"/>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="G4" s="4" t="s">
-        <v>21</v>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1033,14 +997,14 @@
       <c r="BQ4" s="4"/>
       <c r="BR4" s="4"/>
     </row>
-    <row r="5" spans="1:70" ht="15.75" customHeight="1">
+    <row r="5" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1103,14 +1067,14 @@
       <c r="BQ5" s="4"/>
       <c r="BR5" s="4"/>
     </row>
-    <row r="6" spans="1:70" ht="15.75" customHeight="1">
+    <row r="6" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1173,14 +1137,14 @@
       <c r="BQ6" s="4"/>
       <c r="BR6" s="4"/>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1243,14 +1207,14 @@
       <c r="BQ7" s="4"/>
       <c r="BR7" s="4"/>
     </row>
-    <row r="8" spans="1:70" ht="15.75" customHeight="1">
+    <row r="8" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1313,14 +1277,14 @@
       <c r="BQ8" s="4"/>
       <c r="BR8" s="4"/>
     </row>
-    <row r="9" spans="1:70" ht="15.75" customHeight="1">
+    <row r="9" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1383,14 +1347,14 @@
       <c r="BQ9" s="4"/>
       <c r="BR9" s="4"/>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1453,7 +1417,7 @@
       <c r="BQ10" s="4"/>
       <c r="BR10" s="4"/>
     </row>
-    <row r="11" spans="1:70" ht="15.75" customHeight="1">
+    <row r="11" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1523,7 +1487,7 @@
       <c r="BQ11" s="4"/>
       <c r="BR11" s="4"/>
     </row>
-    <row r="12" spans="1:70" ht="15.75" customHeight="1">
+    <row r="12" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1593,7 +1557,7 @@
       <c r="BQ12" s="4"/>
       <c r="BR12" s="4"/>
     </row>
-    <row r="13" spans="1:70" ht="15.75" customHeight="1">
+    <row r="13" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1672,78 +1636,79 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Element Type" prompt=" " xr:uid="{ED8F7A2E-23DB-402F-9692-0AF94F855CD3}">
+          <x14:formula1>
+            <xm:f>'Element Types'!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0148C08-9615-D040-B920-96C17CC67CC7}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,82 +1721,82 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75">
-      <c r="A2" s="6" t="s">
+    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75">
-      <c r="A3" s="6" t="s">
+    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75">
-      <c r="A5" s="6" t="s">
+    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="6" t="s">
+    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75">
-      <c r="A7" s="6" t="s">
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75">
-      <c r="A9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.75">
-      <c r="A11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75">
-      <c r="A13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
+    <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1844,26 +1809,24 @@
   </sheetPr>
   <dimension ref="A4:H4"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="10.625" style="5"/>
+    <col min="1" max="16384" width="10.6171875" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1878,26 +1841,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53b68671-e449-4e87-821e-fc08216823ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cdbdbc2c-45ca-413e-b295-678efdbc19d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A61697D38203847938FFCF3229B9C76" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d5ce38c9bf382b92e1571a421fa74c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53b68671-e449-4e87-821e-fc08216823ed" xmlns:ns3="cdbdbc2c-45ca-413e-b295-678efdbc19d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bbf1308a707f6333976ac6b11147548" ns2:_="" ns3:_="">
     <xsd:import namespace="53b68671-e449-4e87-821e-fc08216823ed"/>
@@ -2090,16 +2033,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53b68671-e449-4e87-821e-fc08216823ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cdbdbc2c-45ca-413e-b295-678efdbc19d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B19C9F5-07A1-4F64-B84F-36BB50F0A8F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="53b68671-e449-4e87-821e-fc08216823ed"/>
+    <ds:schemaRef ds:uri="cdbdbc2c-45ca-413e-b295-678efdbc19d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589664EC-063F-42CF-9F49-3AC2337402A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B19C9F5-07A1-4F64-B84F-36BB50F0A8F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5A26520-C4EA-4E95-94B4-40DA8F7673B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="53b68671-e449-4e87-821e-fc08216823ed"/>
+    <ds:schemaRef ds:uri="cdbdbc2c-45ca-413e-b295-678efdbc19d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Development.xlsx
+++ b/spreadsheet-examples/spreadsheet-libraries/SAP Cloud ALM - Library Elements Template for Development.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12161E30-19E2-4467-B2E2-207874CA8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F77E90-2966-43A6-8BFB-9E6488A41D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library Elements" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Help Portal" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Library Elements'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Library Elements'!$A$1:$M$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -91,6 +91,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2BF8F996-2322-4770-AC08-7C00173484A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -201,19 +234,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -264,17 +290,38 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF172B4D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D2D3E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF1D2D3E"/>
-      <name val="72"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF172B4D"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -298,7 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,29 +361,29 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,972 +711,259 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BR13"/>
+  <dimension ref="A1:BO20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="25.37890625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.6171875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.47265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.47265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" style="2" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.37890625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.6171875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.76171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.76171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.76171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="25.37890625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:67" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-    </row>
-    <row r="2" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A2" s="4" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+    </row>
+    <row r="2" spans="1:67" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-    </row>
-    <row r="3" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
+    </row>
+    <row r="3" spans="1:67" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-    </row>
-    <row r="4" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
+    </row>
+    <row r="4" spans="1:67" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-    </row>
-    <row r="5" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
-      <c r="BQ5" s="4"/>
-      <c r="BR5" s="4"/>
-    </row>
-    <row r="6" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
-      <c r="BL6" s="4"/>
-      <c r="BM6" s="4"/>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4"/>
-      <c r="BP6" s="4"/>
-      <c r="BQ6" s="4"/>
-      <c r="BR6" s="4"/>
-    </row>
-    <row r="7" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="4"/>
-      <c r="BQ7" s="4"/>
-      <c r="BR7" s="4"/>
-    </row>
-    <row r="8" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
-      <c r="BL8" s="4"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
-      <c r="BO8" s="4"/>
-      <c r="BP8" s="4"/>
-      <c r="BQ8" s="4"/>
-      <c r="BR8" s="4"/>
-    </row>
-    <row r="9" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="4"/>
-      <c r="BH9" s="4"/>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="4"/>
-      <c r="BL9" s="4"/>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
-      <c r="BO9" s="4"/>
-      <c r="BP9" s="4"/>
-      <c r="BQ9" s="4"/>
-      <c r="BR9" s="4"/>
-    </row>
-    <row r="10" spans="1:70" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-      <c r="BE10" s="4"/>
-      <c r="BF10" s="4"/>
-      <c r="BG10" s="4"/>
-      <c r="BH10" s="4"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
-      <c r="BL10" s="4"/>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="4"/>
-      <c r="BO10" s="4"/>
-      <c r="BP10" s="4"/>
-      <c r="BQ10" s="4"/>
-      <c r="BR10" s="4"/>
-    </row>
-    <row r="11" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4"/>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
-      <c r="BO11" s="4"/>
-      <c r="BP11" s="4"/>
-      <c r="BQ11" s="4"/>
-      <c r="BR11" s="4"/>
-    </row>
-    <row r="12" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
-      <c r="BL12" s="4"/>
-      <c r="BM12" s="4"/>
-      <c r="BN12" s="4"/>
-      <c r="BO12" s="4"/>
-      <c r="BP12" s="4"/>
-      <c r="BQ12" s="4"/>
-      <c r="BR12" s="4"/>
-    </row>
-    <row r="13" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
-      <c r="BL13" s="4"/>
-      <c r="BM13" s="4"/>
-      <c r="BN13" s="4"/>
-      <c r="BO13" s="4"/>
-      <c r="BP13" s="4"/>
-      <c r="BQ13" s="4"/>
-      <c r="BR13" s="4"/>
+    </row>
+    <row r="5" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:67" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+    </row>
+    <row r="8" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:67" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A1:M4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{4F478BBB-D239-46AD-AE9F-9E9FCC6AA792}"/>
   </hyperlinks>
@@ -1638,12 +972,18 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Element Type" prompt=" " xr:uid="{ED8F7A2E-23DB-402F-9692-0AF94F855CD3}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Element Type" prompt=" " xr:uid="{6D15EEFC-88C1-4175-8596-49F9EA09554C}">
           <x14:formula1>
-            <xm:f>'Element Types'!$A$2:$A$13</xm:f>
+            <xm:f>'Element Types'!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G10</xm:sqref>
+          <xm:sqref>G2:G20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52C047E7-4F61-4BD6-A909-B0564F15DD77}">
+          <x14:formula1>
+            <xm:f>'Library Type'!$A$2:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1653,62 +993,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0148C08-9615-D040-B920-96C17CC67CC7}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,77 +1036,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0303B768-7198-F346-AE46-E4635DF74FC2}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.6171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1809,11 +1124,11 @@
   </sheetPr>
   <dimension ref="A4:H4"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="10.6171875" style="5"/>
+    <col min="1" max="16384" width="10.6171875" style="3"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.6">
@@ -2093,6 +1408,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{42f7676c-f455-423c-82f6-dc2d99791af7}" enabled="0" method="" siteId="{42f7676c-f455-423c-82f6-dc2d99791af7}" removed="1"/>
+  <clbl:label id="{0cf7ac0a-4681-4823-ab0b-04ef02c5f873}" enabled="1" method="Standard" siteId="{42f7676c-f455-423c-82f6-dc2d99791af7}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>